--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\SibusawaKotaro\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA9DD1-08EA-41D7-A5DE-48ACC24BFF4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC8C510-ADED-42F5-9079-42CFBDEB1653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -660,6 +660,17 @@
     <rPh sb="0" eb="2">
       <t>テキヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1441,7 +1452,7 @@
   <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1596,7 +1607,9 @@
       <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="20"/>
       <c r="I9" s="5"/>
@@ -1613,7 +1626,9 @@
       <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
       <c r="I10" s="5"/>
@@ -1632,7 +1647,9 @@
       <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="20"/>
       <c r="I11" s="5"/>
@@ -1649,7 +1666,9 @@
       <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="20"/>
       <c r="I12" s="5"/>
@@ -1670,7 +1689,9 @@
       <c r="E13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="20"/>
       <c r="I13" s="5"/>
@@ -1687,7 +1708,9 @@
       <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
@@ -1708,7 +1731,9 @@
       <c r="E15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="20"/>
       <c r="I15" s="5"/>
@@ -1725,7 +1750,9 @@
       <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
@@ -1746,7 +1773,9 @@
       <c r="E17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="20"/>
       <c r="I17" s="21" t="s">
@@ -1765,7 +1794,9 @@
       <c r="E18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="20"/>
       <c r="I18" s="21" t="s">
@@ -1788,7 +1819,9 @@
       <c r="E19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="20"/>
       <c r="I19" s="5" t="s">
@@ -1807,7 +1840,9 @@
       <c r="E20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
@@ -1824,7 +1859,9 @@
       <c r="E21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
@@ -1841,7 +1878,9 @@
       <c r="E22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5" t="s">
@@ -1860,7 +1899,9 @@
       <c r="E23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
